--- a/StructureDefinition-ObservationWaist-adultcheck.xlsx
+++ b/StructureDefinition-ObservationWaist-adultcheck.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$121</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$101</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4661" uniqueCount="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3899" uniqueCount="670">
   <si>
     <t>Property</t>
   </si>
@@ -387,22 +387,22 @@
     <t>FiveWs.identifier</t>
   </si>
   <si>
-    <t>Observation.identifier:hospitalNumber</t>
-  </si>
-  <si>
-    <t>hospitalNumber</t>
-  </si>
-  <si>
-    <t>適用所屬機構之醫事機構代碼</t>
-  </si>
-  <si>
-    <t>適用於所屬機構之醫事機構代碼</t>
+    <t>Observation.identifier:medicalrecordNumber</t>
+  </si>
+  <si>
+    <t>medicalrecordNumber</t>
+  </si>
+  <si>
+    <t>適用該就醫紀錄之就診序號</t>
+  </si>
+  <si>
+    <t>適用於該就醫紀錄之就診序號</t>
   </si>
   <si>
     <t>病人幾乎總是被指定一個特定的數值型的唯一識別碼（identifier）</t>
   </si>
   <si>
-    <t>Observation.identifier:hospitalNumber.id</t>
+    <t>Observation.identifier:medicalrecordNumber.id</t>
   </si>
   <si>
     <t>Observation.identifier.id</t>
@@ -424,7 +424,7 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>Observation.identifier:hospitalNumber.extension</t>
+    <t>Observation.identifier:medicalrecordNumber.extension</t>
   </si>
   <si>
     <t>Observation.identifier.extension</t>
@@ -443,7 +443,7 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>Observation.identifier:hospitalNumber.use</t>
+    <t>Observation.identifier:medicalrecordNumber.use</t>
   </si>
   <si>
     <t>Observation.identifier.use</t>
@@ -479,7 +479,7 @@
     <t>Role.code or implied by context</t>
   </si>
   <si>
-    <t>Observation.identifier:hospitalNumber.type</t>
+    <t>Observation.identifier:medicalrecordNumber.type</t>
   </si>
   <si>
     <t>Observation.identifier.type</t>
@@ -520,7 +520,7 @@
     <t>CD</t>
   </si>
   <si>
-    <t>Observation.identifier:hospitalNumber.type.id</t>
+    <t>Observation.identifier:medicalrecordNumber.type.id</t>
   </si>
   <si>
     <t>Observation.identifier.type.id</t>
@@ -529,13 +529,13 @@
     <t>resource中資料項目的唯一ID（用於內部參照），這可以是任何不含空格的字串。</t>
   </si>
   <si>
-    <t>Observation.identifier:hospitalNumber.type.extension</t>
+    <t>Observation.identifier:medicalrecordNumber.type.extension</t>
   </si>
   <si>
     <t>Observation.identifier.type.extension</t>
   </si>
   <si>
-    <t>Observation.identifier:hospitalNumber.type.coding</t>
+    <t>Observation.identifier:medicalrecordNumber.type.coding</t>
   </si>
   <si>
     <t>Observation.identifier.type.coding</t>
@@ -566,13 +566,13 @@
     <t>CV</t>
   </si>
   <si>
-    <t>Observation.identifier:hospitalNumber.type.coding.id</t>
+    <t>Observation.identifier:medicalrecordNumber.type.coding.id</t>
   </si>
   <si>
     <t>Observation.identifier.type.coding.id</t>
   </si>
   <si>
-    <t>Observation.identifier:hospitalNumber.type.coding.extension</t>
+    <t>Observation.identifier:medicalrecordNumber.type.coding.extension</t>
   </si>
   <si>
     <t>Observation.identifier.type.coding.extension</t>
@@ -584,7 +584,7 @@
     <t>無論使用或定義擴充的機構或管轄區，任何應用程式、專案或標準使用擴充都不背負任何污名（stigma）。使用擴充是允許FHIR規範為每個人保留一個核心的簡易性。</t>
   </si>
   <si>
-    <t>Observation.identifier:hospitalNumber.type.coding.system</t>
+    <t>Observation.identifier:medicalrecordNumber.type.coding.system</t>
   </si>
   <si>
     <t>Observation.identifier.type.coding.system</t>
@@ -614,7 +614,7 @@
     <t>./codeSystem</t>
   </si>
   <si>
-    <t>Observation.identifier:hospitalNumber.type.coding.version</t>
+    <t>Observation.identifier:medicalrecordNumber.type.coding.version</t>
   </si>
   <si>
     <t>Observation.identifier.type.coding.version</t>
@@ -638,7 +638,7 @@
     <t>./codeSystemVersion</t>
   </si>
   <si>
-    <t>Observation.identifier:hospitalNumber.type.coding.code</t>
+    <t>Observation.identifier:medicalrecordNumber.type.coding.code</t>
   </si>
   <si>
     <t>Observation.identifier.type.coding.code</t>
@@ -653,7 +653,7 @@
     <t>需要參照系統中的一個特定代碼</t>
   </si>
   <si>
-    <t>PRN</t>
+    <t>MRT</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -665,7 +665,7 @@
     <t>./code</t>
   </si>
   <si>
-    <t>Observation.identifier:hospitalNumber.type.coding.display</t>
+    <t>Observation.identifier:medicalrecordNumber.type.coding.display</t>
   </si>
   <si>
     <t>Observation.identifier.type.coding.display</t>
@@ -689,7 +689,7 @@
     <t>CV.displayName</t>
   </si>
   <si>
-    <t>Observation.identifier:hospitalNumber.type.coding.userSelected</t>
+    <t>Observation.identifier:medicalrecordNumber.type.coding.userSelected</t>
   </si>
   <si>
     <t>Observation.identifier.type.coding.userSelected</t>
@@ -720,7 +720,7 @@
     <t>CD.codingRationale</t>
   </si>
   <si>
-    <t>Observation.identifier:hospitalNumber.type.text</t>
+    <t>Observation.identifier:medicalrecordNumber.type.text</t>
   </si>
   <si>
     <t>Observation.identifier.type.text</t>
@@ -747,14 +747,13 @@
     <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
-    <t>Observation.identifier:hospitalNumber.system</t>
+    <t>Observation.identifier:medicalrecordNumber.system</t>
   </si>
   <si>
     <t>Observation.identifier.system</t>
   </si>
   <si>
-    <t>身份識別碼（identifier）的命名空間（namespace）
-例如：醫事機構代碼='https://twcore.mohw.gov.tw/tsfhir/CodeSystem/organization-identifier-tw'</t>
+    <t>就診序號發號者/機構/單位</t>
   </si>
   <si>
     <t>建立值的命名空間－即一個描述一組值的唯一URL</t>
@@ -766,9 +765,6 @@
     <t>有許多識別碼的集合。為了進行兩個識別碼的對應，我們需要知道我們處理的是哪一組。系統指明了一個特定的唯一識別碼集。</t>
   </si>
   <si>
-    <t>https://twcore.mohw.gov.tw/tsfhir/CodeSystem/organization-identifier-tw</t>
-  </si>
-  <si>
     <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
@@ -781,14 +777,14 @@
     <t>II.root or Role.id.root</t>
   </si>
   <si>
-    <t>Observation.identifier:hospitalNumber.value</t>
+    <t>Observation.identifier:medicalrecordNumber.value</t>
   </si>
   <si>
     <t>Observation.identifier.value</t>
   </si>
   <si>
     <t>唯一值。
-例如：所屬機構之醫事機構代碼為0123456789</t>
+例如：就診序號為0123456789</t>
   </si>
   <si>
     <t>識別碼中通常與使用者有關的部分，在系統情境內是唯一的。</t>
@@ -809,7 +805,7 @@
     <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
   </si>
   <si>
-    <t>Observation.identifier:hospitalNumber.period</t>
+    <t>Observation.identifier:medicalrecordNumber.period</t>
   </si>
   <si>
     <t>Observation.identifier.period</t>
@@ -834,7 +830,7 @@
     <t>Role.effectiveTime or implied by context</t>
   </si>
   <si>
-    <t>Observation.identifier:hospitalNumber.assigner</t>
+    <t>Observation.identifier:medicalrecordNumber.assigner</t>
   </si>
   <si>
     <t>Observation.identifier.assigner</t>
@@ -862,81 +858,6 @@
     <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
   </si>
   <si>
-    <t>Observation.identifier:medicalrecordNumber</t>
-  </si>
-  <si>
-    <t>medicalrecordNumber</t>
-  </si>
-  <si>
-    <t>適用該就醫紀錄之就診序號</t>
-  </si>
-  <si>
-    <t>適用於該就醫紀錄之就診序號</t>
-  </si>
-  <si>
-    <t>Observation.identifier:medicalrecordNumber.id</t>
-  </si>
-  <si>
-    <t>Observation.identifier:medicalrecordNumber.extension</t>
-  </si>
-  <si>
-    <t>Observation.identifier:medicalrecordNumber.use</t>
-  </si>
-  <si>
-    <t>Observation.identifier:medicalrecordNumber.type</t>
-  </si>
-  <si>
-    <t>Observation.identifier:medicalrecordNumber.type.id</t>
-  </si>
-  <si>
-    <t>Observation.identifier:medicalrecordNumber.type.extension</t>
-  </si>
-  <si>
-    <t>Observation.identifier:medicalrecordNumber.type.coding</t>
-  </si>
-  <si>
-    <t>Observation.identifier:medicalrecordNumber.type.coding.id</t>
-  </si>
-  <si>
-    <t>Observation.identifier:medicalrecordNumber.type.coding.extension</t>
-  </si>
-  <si>
-    <t>Observation.identifier:medicalrecordNumber.type.coding.system</t>
-  </si>
-  <si>
-    <t>Observation.identifier:medicalrecordNumber.type.coding.version</t>
-  </si>
-  <si>
-    <t>Observation.identifier:medicalrecordNumber.type.coding.code</t>
-  </si>
-  <si>
-    <t>MRT</t>
-  </si>
-  <si>
-    <t>Observation.identifier:medicalrecordNumber.type.coding.display</t>
-  </si>
-  <si>
-    <t>Observation.identifier:medicalrecordNumber.type.coding.userSelected</t>
-  </si>
-  <si>
-    <t>Observation.identifier:medicalrecordNumber.type.text</t>
-  </si>
-  <si>
-    <t>Observation.identifier:medicalrecordNumber.system</t>
-  </si>
-  <si>
-    <t>使用個醫院/機構院內代碼</t>
-  </si>
-  <si>
-    <t>Observation.identifier:medicalrecordNumber.value</t>
-  </si>
-  <si>
-    <t>Observation.identifier:medicalrecordNumber.period</t>
-  </si>
-  <si>
-    <t>Observation.identifier:medicalrecordNumber.assigner</t>
-  </si>
-  <si>
     <t>Observation.basedOn</t>
   </si>
   <si>
@@ -1637,9 +1558,6 @@
     <t>Need to know the system that defines the coded form of the unit.</t>
   </si>
   <si>
-    <t>http://unitsofmeasure.org</t>
-  </si>
-  <si>
     <t>Quantity.system</t>
   </si>
   <si>
@@ -1666,9 +1584,6 @@
   </si>
   <si>
     <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
-  </si>
-  <si>
-    <t>[in_i]</t>
   </si>
   <si>
     <t>Quantity.code</t>
@@ -2494,7 +2409,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP121"/>
+  <dimension ref="A1:AP101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5717,46 +5632,46 @@
         <v>38</v>
       </c>
       <c r="S27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T27" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="T27" t="s" s="2">
+      <c r="U27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF27" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="U27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>36</v>
@@ -5777,10 +5692,10 @@
         <v>38</v>
       </c>
       <c r="AM27" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>38</v>
@@ -5791,10 +5706,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="B28" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5820,13 +5735,13 @@
         <v>124</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5840,43 +5755,43 @@
         <v>38</v>
       </c>
       <c r="T28" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF28" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>36</v>
@@ -5897,10 +5812,10 @@
         <v>38</v>
       </c>
       <c r="AM28" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>38</v>
@@ -5911,10 +5826,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="B29" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5937,13 +5852,13 @@
         <v>50</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5994,7 +5909,7 @@
         <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>36</v>
@@ -6015,10 +5930,10 @@
         <v>38</v>
       </c>
       <c r="AM29" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>38</v>
@@ -6029,10 +5944,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="B30" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -6055,16 +5970,16 @@
         <v>50</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -6114,7 +6029,7 @@
         <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>36</v>
@@ -6135,10 +6050,10 @@
         <v>38</v>
       </c>
       <c r="AM30" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>38</v>
@@ -6149,26 +6064,24 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="D31" t="s" s="2">
-        <v>38</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>38</v>
@@ -6177,7 +6090,7 @@
         <v>50</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>107</v>
+        <v>273</v>
       </c>
       <c r="L31" t="s" s="2">
         <v>274</v>
@@ -6187,7 +6100,7 @@
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>121</v>
+        <v>276</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>38</v>
@@ -6236,7 +6149,7 @@
         <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>106</v>
+        <v>271</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>36</v>
@@ -6251,19 +6164,19 @@
         <v>61</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>113</v>
+        <v>277</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>114</v>
+        <v>278</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>115</v>
+        <v>279</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>38</v>
@@ -6271,21 +6184,21 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>123</v>
+        <v>280</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>38</v>
+        <v>281</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>38</v>
@@ -6294,18 +6207,20 @@
         <v>38</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>124</v>
+        <v>282</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>125</v>
+        <v>283</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>38</v>
@@ -6354,31 +6269,31 @@
         <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>127</v>
+        <v>280</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>38</v>
+        <v>286</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>38</v>
+        <v>287</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>128</v>
+        <v>288</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>38</v>
@@ -6389,10 +6304,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>130</v>
+        <v>289</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6400,31 +6315,35 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>131</v>
+        <v>290</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>38</v>
       </c>
@@ -6433,7 +6352,7 @@
         <v>38</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>38</v>
+        <v>294</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>38</v>
@@ -6448,58 +6367,58 @@
         <v>38</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>38</v>
+        <v>295</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>38</v>
+        <v>296</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>134</v>
+        <v>289</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>38</v>
+        <v>297</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>38</v>
+        <v>298</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>38</v>
+        <v>299</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>38</v>
+        <v>300</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>38</v>
+        <v>301</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>38</v>
@@ -6507,10 +6426,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>278</v>
+        <v>302</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>136</v>
+        <v>302</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6518,34 +6437,34 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>50</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>69</v>
+        <v>303</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>137</v>
+        <v>304</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>138</v>
+        <v>305</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>139</v>
+        <v>306</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>140</v>
+        <v>307</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>38</v>
@@ -6555,7 +6474,7 @@
         <v>38</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>141</v>
+        <v>38</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>38</v>
@@ -6570,13 +6489,13 @@
         <v>38</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>142</v>
+        <v>73</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>143</v>
+        <v>308</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>144</v>
+        <v>309</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>38</v>
@@ -6594,13 +6513,13 @@
         <v>38</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>145</v>
+        <v>302</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>38</v>
@@ -6615,13 +6534,13 @@
         <v>38</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>146</v>
+        <v>310</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>38</v>
+        <v>311</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>38</v>
@@ -6629,10 +6548,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>148</v>
+        <v>312</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6640,13 +6559,13 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>49</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>38</v>
@@ -6655,20 +6574,16 @@
         <v>38</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>150</v>
+        <v>313</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>38</v>
       </c>
@@ -6692,13 +6607,13 @@
         <v>38</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>142</v>
+        <v>38</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>154</v>
+        <v>38</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>155</v>
+        <v>38</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>38</v>
@@ -6716,7 +6631,7 @@
         <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>36</v>
@@ -6725,10 +6640,10 @@
         <v>49</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>157</v>
+        <v>38</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>38</v>
@@ -6737,10 +6652,10 @@
         <v>38</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>158</v>
+        <v>38</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>38</v>
@@ -6751,21 +6666,21 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>161</v>
+        <v>315</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>38</v>
@@ -6777,15 +6692,17 @@
         <v>38</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>38</v>
@@ -6822,31 +6739,31 @@
         <v>38</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>38</v>
@@ -6869,10 +6786,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>164</v>
+        <v>317</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6892,19 +6809,23 @@
         <v>38</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>95</v>
+        <v>318</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>38</v>
       </c>
@@ -6940,19 +6861,19 @@
         <v>38</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>134</v>
+        <v>172</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>36</v>
@@ -6964,7 +6885,7 @@
         <v>38</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>38</v>
@@ -6973,10 +6894,10 @@
         <v>38</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>38</v>
+        <v>321</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>38</v>
+        <v>322</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>38</v>
@@ -6987,10 +6908,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>282</v>
+        <v>323</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>166</v>
+        <v>323</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -7001,10 +6922,10 @@
         <v>36</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>38</v>
@@ -7013,20 +6934,16 @@
         <v>38</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>168</v>
+        <v>313</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>38</v>
       </c>
@@ -7074,19 +6991,19 @@
         <v>38</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>157</v>
+        <v>38</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>38</v>
@@ -7095,10 +7012,10 @@
         <v>38</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>173</v>
+        <v>38</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>174</v>
+        <v>128</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>38</v>
@@ -7109,21 +7026,21 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>283</v>
+        <v>324</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>176</v>
+        <v>324</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>38</v>
@@ -7135,15 +7052,17 @@
         <v>38</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>38</v>
@@ -7180,31 +7099,31 @@
         <v>38</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>38</v>
@@ -7227,10 +7146,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>284</v>
+        <v>325</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>178</v>
+        <v>325</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7241,7 +7160,7 @@
         <v>36</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>38</v>
@@ -7250,21 +7169,23 @@
         <v>38</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>131</v>
+        <v>326</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>179</v>
+        <v>327</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="O40" s="2"/>
+        <v>328</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>329</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>38</v>
       </c>
@@ -7273,7 +7194,7 @@
         <v>38</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>38</v>
+        <v>330</v>
       </c>
       <c r="T40" t="s" s="2">
         <v>38</v>
@@ -7300,31 +7221,31 @@
         <v>38</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>134</v>
+        <v>188</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>38</v>
@@ -7333,10 +7254,10 @@
         <v>38</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>38</v>
+        <v>189</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>38</v>
@@ -7347,10 +7268,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>285</v>
+        <v>331</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>182</v>
+        <v>331</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7358,13 +7279,13 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>49</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>38</v>
@@ -7373,20 +7294,18 @@
         <v>50</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>183</v>
+        <v>332</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>184</v>
+        <v>333</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>186</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>38</v>
       </c>
@@ -7395,7 +7314,7 @@
         <v>38</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>187</v>
+        <v>38</v>
       </c>
       <c r="T41" t="s" s="2">
         <v>38</v>
@@ -7434,7 +7353,7 @@
         <v>38</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>36</v>
@@ -7455,10 +7374,10 @@
         <v>38</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>38</v>
@@ -7469,10 +7388,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>286</v>
+        <v>335</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>192</v>
+        <v>335</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7495,18 +7414,18 @@
         <v>50</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>124</v>
+        <v>69</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>193</v>
+        <v>336</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="O42" s="2"/>
+        <v>337</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>338</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>38</v>
       </c>
@@ -7515,7 +7434,7 @@
         <v>38</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>38</v>
+        <v>339</v>
       </c>
       <c r="T42" t="s" s="2">
         <v>38</v>
@@ -7554,7 +7473,7 @@
         <v>38</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>36</v>
@@ -7575,10 +7494,10 @@
         <v>38</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>38</v>
@@ -7589,10 +7508,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>287</v>
+        <v>340</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>200</v>
+        <v>340</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7600,13 +7519,13 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>49</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>38</v>
@@ -7615,17 +7534,17 @@
         <v>50</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>201</v>
+        <v>341</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>202</v>
+        <v>342</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>203</v>
+        <v>343</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>38</v>
@@ -7635,7 +7554,7 @@
         <v>38</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>288</v>
+        <v>344</v>
       </c>
       <c r="T43" t="s" s="2">
         <v>38</v>
@@ -7674,7 +7593,7 @@
         <v>38</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>36</v>
@@ -7695,10 +7614,10 @@
         <v>38</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>38</v>
@@ -7709,10 +7628,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>289</v>
+        <v>345</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>209</v>
+        <v>345</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7726,7 +7645,7 @@
         <v>49</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>38</v>
@@ -7735,17 +7654,19 @@
         <v>50</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>124</v>
+        <v>218</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>210</v>
+        <v>346</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O44" t="s" s="2">
-        <v>212</v>
+        <v>349</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>38</v>
@@ -7794,7 +7715,7 @@
         <v>38</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>36</v>
@@ -7815,10 +7736,10 @@
         <v>38</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>38</v>
@@ -7829,10 +7750,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>290</v>
+        <v>350</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>217</v>
+        <v>350</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7855,19 +7776,19 @@
         <v>50</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>218</v>
+        <v>124</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>219</v>
+        <v>351</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>220</v>
+        <v>352</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>222</v>
+        <v>354</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>38</v>
@@ -7916,7 +7837,7 @@
         <v>38</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>36</v>
@@ -7937,10 +7858,10 @@
         <v>38</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>38</v>
@@ -7951,24 +7872,24 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>291</v>
+        <v>355</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>227</v>
+        <v>355</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>38</v>
+        <v>356</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>49</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>38</v>
@@ -7977,19 +7898,19 @@
         <v>50</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>124</v>
+        <v>303</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>228</v>
+        <v>357</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>229</v>
+        <v>358</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>230</v>
+        <v>359</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>231</v>
+        <v>360</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>38</v>
@@ -8014,13 +7935,13 @@
         <v>38</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>38</v>
+        <v>361</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>38</v>
+        <v>362</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>38</v>
+        <v>363</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>38</v>
@@ -8038,10 +7959,10 @@
         <v>38</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>232</v>
+        <v>355</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>49</v>
@@ -8053,30 +7974,30 @@
         <v>61</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>38</v>
+        <v>364</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>38</v>
+        <v>365</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>233</v>
+        <v>366</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>234</v>
+        <v>367</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>38</v>
+        <v>368</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>38</v>
+        <v>369</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>292</v>
+        <v>370</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>236</v>
+        <v>370</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8084,35 +8005,31 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>49</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>293</v>
+        <v>313</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>38</v>
       </c>
@@ -8124,7 +8041,7 @@
         <v>38</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>242</v>
+        <v>38</v>
       </c>
       <c r="U47" t="s" s="2">
         <v>38</v>
@@ -8160,7 +8077,7 @@
         <v>38</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>243</v>
+        <v>127</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>36</v>
@@ -8172,7 +8089,7 @@
         <v>38</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>38</v>
@@ -8181,10 +8098,10 @@
         <v>38</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>244</v>
+        <v>38</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>245</v>
+        <v>128</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>38</v>
@@ -8195,42 +8112,42 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>294</v>
+        <v>371</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>247</v>
+        <v>371</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>248</v>
+        <v>96</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>249</v>
+        <v>316</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>250</v>
+        <v>98</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -8244,7 +8161,7 @@
         <v>38</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>251</v>
+        <v>38</v>
       </c>
       <c r="U48" t="s" s="2">
         <v>38</v>
@@ -8268,31 +8185,31 @@
         <v>38</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="AD48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>252</v>
+        <v>134</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>38</v>
@@ -8301,10 +8218,10 @@
         <v>38</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>253</v>
+        <v>38</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>254</v>
+        <v>128</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>38</v>
@@ -8315,10 +8232,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>295</v>
+        <v>372</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>256</v>
+        <v>372</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8329,7 +8246,7 @@
         <v>36</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>38</v>
@@ -8341,16 +8258,20 @@
         <v>50</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>257</v>
+        <v>318</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>258</v>
+        <v>373</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>38</v>
       </c>
@@ -8398,13 +8319,13 @@
         <v>38</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>260</v>
+        <v>172</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>38</v>
@@ -8419,10 +8340,10 @@
         <v>38</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>261</v>
+        <v>321</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>262</v>
+        <v>322</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>38</v>
@@ -8433,10 +8354,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>296</v>
+        <v>377</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>264</v>
+        <v>377</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8456,20 +8377,18 @@
         <v>38</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>265</v>
+        <v>124</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>266</v>
+        <v>313</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>268</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>38</v>
@@ -8518,7 +8437,7 @@
         <v>38</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>269</v>
+        <v>127</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>36</v>
@@ -8530,7 +8449,7 @@
         <v>38</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>38</v>
@@ -8539,10 +8458,10 @@
         <v>38</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>270</v>
+        <v>38</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>271</v>
+        <v>128</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>38</v>
@@ -8553,14 +8472,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>297</v>
+        <v>378</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>297</v>
+        <v>378</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>298</v>
+        <v>94</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -8576,21 +8495,21 @@
         <v>38</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>299</v>
+        <v>95</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>300</v>
+        <v>96</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>302</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>38</v>
       </c>
@@ -8626,19 +8545,19 @@
         <v>38</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="AD51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>297</v>
+        <v>134</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>36</v>
@@ -8650,19 +8569,19 @@
         <v>38</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>303</v>
+        <v>38</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>304</v>
+        <v>38</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>305</v>
+        <v>128</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>38</v>
@@ -8673,21 +8592,21 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>306</v>
+        <v>379</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>306</v>
+        <v>379</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>307</v>
+        <v>38</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>38</v>
@@ -8699,18 +8618,20 @@
         <v>50</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>308</v>
+        <v>63</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="O52" s="2"/>
+        <v>328</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>329</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>38</v>
       </c>
@@ -8719,7 +8640,7 @@
         <v>38</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>38</v>
+        <v>380</v>
       </c>
       <c r="T52" t="s" s="2">
         <v>38</v>
@@ -8758,13 +8679,13 @@
         <v>38</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>306</v>
+        <v>188</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>38</v>
@@ -8773,16 +8694,16 @@
         <v>61</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>312</v>
+        <v>38</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>313</v>
+        <v>189</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>314</v>
+        <v>190</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>38</v>
@@ -8793,10 +8714,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>315</v>
+        <v>381</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>315</v>
+        <v>381</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8804,7 +8725,7 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>49</v>
@@ -8813,26 +8734,24 @@
         <v>38</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="J53" t="s" s="2">
         <v>50</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>38</v>
       </c>
@@ -8841,7 +8760,7 @@
         <v>38</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>320</v>
+        <v>38</v>
       </c>
       <c r="T53" t="s" s="2">
         <v>38</v>
@@ -8856,13 +8775,13 @@
         <v>38</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>142</v>
+        <v>38</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>321</v>
+        <v>38</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>322</v>
+        <v>38</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>38</v>
@@ -8880,10 +8799,10 @@
         <v>38</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>315</v>
+        <v>196</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>49</v>
@@ -8895,19 +8814,19 @@
         <v>61</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>323</v>
+        <v>38</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>324</v>
+        <v>38</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>325</v>
+        <v>197</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>326</v>
+        <v>198</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>327</v>
+        <v>38</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>38</v>
@@ -8915,10 +8834,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>328</v>
+        <v>382</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>328</v>
+        <v>382</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8926,34 +8845,32 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J54" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="I54" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>38</v>
-      </c>
       <c r="K54" t="s" s="2">
-        <v>329</v>
+        <v>69</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>332</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>38</v>
@@ -8963,7 +8880,7 @@
         <v>38</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>38</v>
+        <v>383</v>
       </c>
       <c r="T54" t="s" s="2">
         <v>38</v>
@@ -8978,13 +8895,13 @@
         <v>38</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>334</v>
+        <v>38</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>335</v>
+        <v>38</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>38</v>
@@ -9002,13 +8919,13 @@
         <v>38</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>328</v>
+        <v>205</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>38</v>
@@ -9023,13 +8940,13 @@
         <v>38</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>38</v>
+        <v>206</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>336</v>
+        <v>207</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>337</v>
+        <v>38</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>38</v>
@@ -9037,10 +8954,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>338</v>
+        <v>384</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>338</v>
+        <v>384</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9060,19 +8977,21 @@
         <v>38</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="K55" t="s" s="2">
         <v>124</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>38</v>
       </c>
@@ -9120,7 +9039,7 @@
         <v>38</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>127</v>
+        <v>213</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>36</v>
@@ -9132,7 +9051,7 @@
         <v>38</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>38</v>
@@ -9141,10 +9060,10 @@
         <v>38</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>38</v>
+        <v>214</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>128</v>
+        <v>215</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>38</v>
@@ -9155,21 +9074,21 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>341</v>
+        <v>385</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>341</v>
+        <v>385</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>38</v>
@@ -9178,21 +9097,23 @@
         <v>38</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>95</v>
+        <v>218</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>96</v>
+        <v>346</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O56" s="2"/>
+        <v>348</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>38</v>
       </c>
@@ -9228,31 +9149,31 @@
         <v>38</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="AD56" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>134</v>
+        <v>223</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>38</v>
@@ -9261,10 +9182,10 @@
         <v>38</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>38</v>
+        <v>224</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>128</v>
+        <v>225</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>38</v>
@@ -9275,10 +9196,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>343</v>
+        <v>386</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>343</v>
+        <v>386</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9289,7 +9210,7 @@
         <v>36</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>38</v>
@@ -9301,19 +9222,19 @@
         <v>50</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>344</v>
+        <v>124</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>168</v>
+        <v>351</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>153</v>
+        <v>354</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>38</v>
@@ -9362,13 +9283,13 @@
         <v>38</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>38</v>
@@ -9383,10 +9304,10 @@
         <v>38</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>347</v>
+        <v>233</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>348</v>
+        <v>234</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>38</v>
@@ -9397,10 +9318,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>349</v>
+        <v>387</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>349</v>
+        <v>387</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9420,19 +9341,23 @@
         <v>38</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>124</v>
+        <v>388</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>339</v>
+        <v>389</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
+        <v>390</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>392</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>38</v>
       </c>
@@ -9480,7 +9405,7 @@
         <v>38</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>127</v>
+        <v>387</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>36</v>
@@ -9492,22 +9417,22 @@
         <v>38</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>38</v>
+        <v>393</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>38</v>
+        <v>394</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>128</v>
+        <v>395</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>38</v>
+        <v>396</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>38</v>
@@ -9515,14 +9440,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>350</v>
+        <v>397</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>350</v>
+        <v>397</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -9538,19 +9463,19 @@
         <v>38</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>95</v>
+        <v>398</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>96</v>
+        <v>399</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>342</v>
+        <v>400</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>98</v>
+        <v>401</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9588,19 +9513,19 @@
         <v>38</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>134</v>
+        <v>397</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>36</v>
@@ -9612,7 +9537,7 @@
         <v>38</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>38</v>
@@ -9621,13 +9546,13 @@
         <v>38</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>38</v>
+        <v>366</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>128</v>
+        <v>402</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>38</v>
+        <v>396</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>38</v>
@@ -9635,14 +9560,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>351</v>
+        <v>403</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>351</v>
+        <v>403</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>38</v>
+        <v>404</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -9661,19 +9586,19 @@
         <v>50</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>63</v>
+        <v>405</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>352</v>
+        <v>406</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>353</v>
+        <v>407</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>354</v>
+        <v>408</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>355</v>
+        <v>409</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>38</v>
@@ -9683,7 +9608,7 @@
         <v>38</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>356</v>
+        <v>38</v>
       </c>
       <c r="T60" t="s" s="2">
         <v>38</v>
@@ -9722,7 +9647,7 @@
         <v>38</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>188</v>
+        <v>403</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>36</v>
@@ -9737,19 +9662,19 @@
         <v>61</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>38</v>
+        <v>410</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>189</v>
+        <v>411</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>190</v>
+        <v>412</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>38</v>
+        <v>413</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>38</v>
@@ -9757,14 +9682,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>357</v>
+        <v>414</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>357</v>
+        <v>414</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>38</v>
+        <v>415</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9783,18 +9708,20 @@
         <v>50</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>124</v>
+        <v>416</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>358</v>
+        <v>417</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>359</v>
+        <v>418</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="O61" s="2"/>
+        <v>419</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>420</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>38</v>
       </c>
@@ -9830,19 +9757,17 @@
         <v>38</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="AC61" s="2"/>
       <c r="AD61" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>196</v>
+        <v>414</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>36</v>
@@ -9857,19 +9782,19 @@
         <v>61</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>38</v>
+        <v>422</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>197</v>
+        <v>423</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>198</v>
+        <v>424</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>38</v>
+        <v>425</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>38</v>
@@ -9877,14 +9802,16 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>361</v>
+        <v>426</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="C62" s="2"/>
+        <v>414</v>
+      </c>
+      <c r="C62" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="D62" t="s" s="2">
-        <v>38</v>
+        <v>415</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9894,7 +9821,7 @@
         <v>49</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>38</v>
@@ -9903,17 +9830,19 @@
         <v>50</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>69</v>
+        <v>428</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>362</v>
+        <v>417</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>418</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>419</v>
+      </c>
       <c r="O62" t="s" s="2">
-        <v>364</v>
+        <v>420</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>38</v>
@@ -9923,7 +9852,7 @@
         <v>38</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>365</v>
+        <v>38</v>
       </c>
       <c r="T62" t="s" s="2">
         <v>38</v>
@@ -9962,7 +9891,7 @@
         <v>38</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>205</v>
+        <v>414</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>36</v>
@@ -9977,19 +9906,19 @@
         <v>61</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>38</v>
+        <v>422</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>206</v>
+        <v>423</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>207</v>
+        <v>424</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>38</v>
+        <v>425</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>38</v>
@@ -9997,10 +9926,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>366</v>
+        <v>429</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>366</v>
+        <v>429</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -10023,18 +9952,18 @@
         <v>50</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>124</v>
+        <v>430</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>367</v>
+        <v>431</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N63" s="2"/>
-      <c r="O63" t="s" s="2">
-        <v>369</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>38</v>
       </c>
@@ -10043,7 +9972,7 @@
         <v>38</v>
       </c>
       <c r="S63" t="s" s="2">
-        <v>370</v>
+        <v>38</v>
       </c>
       <c r="T63" t="s" s="2">
         <v>38</v>
@@ -10082,7 +10011,7 @@
         <v>38</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>213</v>
+        <v>429</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>36</v>
@@ -10103,13 +10032,13 @@
         <v>38</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>214</v>
+        <v>434</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>215</v>
+        <v>435</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>38</v>
+        <v>436</v>
       </c>
       <c r="AP63" t="s" s="2">
         <v>38</v>
@@ -10117,10 +10046,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>371</v>
+        <v>437</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>371</v>
+        <v>437</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10128,10 +10057,10 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>38</v>
@@ -10143,19 +10072,17 @@
         <v>50</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>218</v>
+        <v>264</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>372</v>
+        <v>438</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>374</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>375</v>
+        <v>440</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>38</v>
@@ -10204,13 +10131,13 @@
         <v>38</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>223</v>
+        <v>437</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>38</v>
@@ -10219,19 +10146,19 @@
         <v>61</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>38</v>
+        <v>441</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>224</v>
+        <v>442</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>225</v>
+        <v>443</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>38</v>
+        <v>444</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>38</v>
@@ -10239,10 +10166,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>376</v>
+        <v>445</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>376</v>
+        <v>445</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10250,7 +10177,7 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>49</v>
@@ -10265,19 +10192,19 @@
         <v>50</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>124</v>
+        <v>446</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>377</v>
+        <v>447</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>378</v>
+        <v>448</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>379</v>
+        <v>449</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>380</v>
+        <v>450</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>38</v>
@@ -10314,19 +10241,17 @@
         <v>38</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="AC65" s="2"/>
       <c r="AD65" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>38</v>
+        <v>451</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>232</v>
+        <v>445</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>36</v>
@@ -10335,7 +10260,7 @@
         <v>49</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>38</v>
+        <v>452</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>61</v>
@@ -10344,31 +10269,33 @@
         <v>38</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>38</v>
+        <v>453</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>233</v>
+        <v>454</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>234</v>
+        <v>455</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AP65" t="s" s="2">
-        <v>38</v>
+        <v>456</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>381</v>
+        <v>457</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="C66" s="2"/>
+        <v>445</v>
+      </c>
+      <c r="C66" t="s" s="2">
+        <v>458</v>
+      </c>
       <c r="D66" t="s" s="2">
-        <v>382</v>
+        <v>38</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -10378,7 +10305,7 @@
         <v>49</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>38</v>
@@ -10387,19 +10314,19 @@
         <v>50</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>329</v>
+        <v>446</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>383</v>
+        <v>459</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>384</v>
+        <v>448</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>385</v>
+        <v>449</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>386</v>
+        <v>450</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>38</v>
@@ -10424,13 +10351,13 @@
         <v>38</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>387</v>
+        <v>38</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>388</v>
+        <v>38</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>389</v>
+        <v>38</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>38</v>
@@ -10448,45 +10375,45 @@
         <v>38</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>381</v>
+        <v>445</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>49</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>38</v>
+        <v>452</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>61</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>390</v>
+        <v>38</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>391</v>
+        <v>453</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>392</v>
+        <v>454</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>393</v>
+        <v>455</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>394</v>
+        <v>38</v>
       </c>
       <c r="AP66" t="s" s="2">
-        <v>395</v>
+        <v>456</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>396</v>
+        <v>460</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>396</v>
+        <v>461</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10512,10 +10439,10 @@
         <v>124</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>339</v>
+        <v>313</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -10601,10 +10528,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>397</v>
+        <v>462</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>397</v>
+        <v>463</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10633,7 +10560,7 @@
         <v>96</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>342</v>
+        <v>316</v>
       </c>
       <c r="N68" t="s" s="2">
         <v>98</v>
@@ -10721,10 +10648,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>398</v>
+        <v>464</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>398</v>
+        <v>465</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10732,13 +10659,13 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>38</v>
@@ -10747,19 +10674,19 @@
         <v>50</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>344</v>
+        <v>466</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>399</v>
+        <v>467</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>400</v>
+        <v>468</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>401</v>
+        <v>469</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>402</v>
+        <v>470</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>38</v>
@@ -10808,13 +10735,13 @@
         <v>38</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>172</v>
+        <v>471</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>38</v>
@@ -10829,10 +10756,10 @@
         <v>38</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>347</v>
+        <v>472</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>348</v>
+        <v>473</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>38</v>
@@ -10843,10 +10770,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>403</v>
+        <v>474</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>403</v>
+        <v>475</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10863,26 +10790,30 @@
         <v>38</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>124</v>
+        <v>69</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>339</v>
+        <v>476</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>340</v>
+        <v>477</v>
       </c>
       <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>478</v>
+      </c>
       <c r="P70" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="Q70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>479</v>
+      </c>
       <c r="R70" t="s" s="2">
         <v>38</v>
       </c>
@@ -10902,13 +10833,13 @@
         <v>38</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>38</v>
+        <v>480</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>38</v>
+        <v>481</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>38</v>
@@ -10926,7 +10857,7 @@
         <v>38</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>127</v>
+        <v>482</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>36</v>
@@ -10938,7 +10869,7 @@
         <v>38</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>38</v>
@@ -10947,10 +10878,10 @@
         <v>38</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>38</v>
+        <v>483</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>128</v>
+        <v>484</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>38</v>
@@ -10961,44 +10892,44 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>404</v>
+        <v>485</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>404</v>
+        <v>486</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>96</v>
+        <v>487</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O71" s="2"/>
+        <v>488</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>489</v>
+      </c>
       <c r="P71" t="s" s="2">
         <v>38</v>
       </c>
@@ -11034,31 +10965,31 @@
         <v>38</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="AC71" t="s" s="2">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="AD71" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>134</v>
+        <v>490</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>38</v>
@@ -11067,10 +10998,10 @@
         <v>38</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>38</v>
+        <v>491</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>128</v>
+        <v>492</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>38</v>
@@ -11081,10 +11012,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>405</v>
+        <v>493</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>405</v>
+        <v>494</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11110,16 +11041,14 @@
         <v>63</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>352</v>
+        <v>495</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>496</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
-        <v>355</v>
+        <v>497</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>38</v>
@@ -11129,7 +11058,7 @@
         <v>38</v>
       </c>
       <c r="S72" t="s" s="2">
-        <v>406</v>
+        <v>38</v>
       </c>
       <c r="T72" t="s" s="2">
         <v>38</v>
@@ -11168,7 +11097,7 @@
         <v>38</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>188</v>
+        <v>498</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>36</v>
@@ -11177,7 +11106,7 @@
         <v>49</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>38</v>
+        <v>499</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>61</v>
@@ -11189,10 +11118,10 @@
         <v>38</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>189</v>
+        <v>491</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>190</v>
+        <v>500</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>38</v>
@@ -11203,10 +11132,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>407</v>
+        <v>501</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>407</v>
+        <v>502</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11229,18 +11158,20 @@
         <v>50</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>124</v>
+        <v>69</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>358</v>
+        <v>503</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>359</v>
+        <v>504</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="O73" s="2"/>
+        <v>505</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>506</v>
+      </c>
       <c r="P73" t="s" s="2">
         <v>38</v>
       </c>
@@ -11288,7 +11219,7 @@
         <v>38</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>196</v>
+        <v>507</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>36</v>
@@ -11309,10 +11240,10 @@
         <v>38</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>197</v>
+        <v>491</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>198</v>
+        <v>508</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>38</v>
@@ -11323,10 +11254,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>408</v>
+        <v>509</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>408</v>
+        <v>509</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11346,20 +11277,22 @@
         <v>38</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>69</v>
+        <v>303</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>362</v>
+        <v>510</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N74" s="2"/>
+        <v>511</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>512</v>
+      </c>
       <c r="O74" t="s" s="2">
-        <v>364</v>
+        <v>513</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>38</v>
@@ -11369,7 +11302,7 @@
         <v>38</v>
       </c>
       <c r="S74" t="s" s="2">
-        <v>409</v>
+        <v>38</v>
       </c>
       <c r="T74" t="s" s="2">
         <v>38</v>
@@ -11384,13 +11317,13 @@
         <v>38</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>38</v>
+        <v>514</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>38</v>
+        <v>515</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>38</v>
+        <v>516</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>38</v>
@@ -11408,7 +11341,7 @@
         <v>38</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>205</v>
+        <v>509</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>36</v>
@@ -11417,7 +11350,7 @@
         <v>49</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>38</v>
+        <v>517</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>61</v>
@@ -11429,10 +11362,10 @@
         <v>38</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>206</v>
+        <v>92</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>207</v>
+        <v>518</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>38</v>
@@ -11443,21 +11376,21 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>410</v>
+        <v>519</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>410</v>
+        <v>519</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>38</v>
+        <v>520</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>38</v>
@@ -11466,20 +11399,22 @@
         <v>38</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>124</v>
+        <v>303</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>367</v>
+        <v>521</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>522</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>523</v>
+      </c>
       <c r="O75" t="s" s="2">
-        <v>369</v>
+        <v>524</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>38</v>
@@ -11504,13 +11439,13 @@
         <v>38</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>38</v>
+        <v>514</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>38</v>
+        <v>525</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>38</v>
+        <v>526</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>38</v>
@@ -11528,13 +11463,13 @@
         <v>38</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>213</v>
+        <v>519</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>38</v>
@@ -11546,27 +11481,27 @@
         <v>38</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>38</v>
+        <v>527</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>214</v>
+        <v>528</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>215</v>
+        <v>529</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AP75" t="s" s="2">
-        <v>38</v>
+        <v>530</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>411</v>
+        <v>531</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>411</v>
+        <v>531</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11577,7 +11512,7 @@
         <v>36</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>38</v>
@@ -11586,22 +11521,22 @@
         <v>38</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>218</v>
+        <v>532</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>372</v>
+        <v>533</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>373</v>
+        <v>534</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>374</v>
+        <v>535</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>375</v>
+        <v>536</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>38</v>
@@ -11650,13 +11585,13 @@
         <v>38</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>223</v>
+        <v>531</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>38</v>
@@ -11671,10 +11606,10 @@
         <v>38</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>224</v>
+        <v>537</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>225</v>
+        <v>538</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>38</v>
@@ -11685,10 +11620,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>412</v>
+        <v>539</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>412</v>
+        <v>539</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11708,23 +11643,21 @@
         <v>38</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>124</v>
+        <v>303</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>377</v>
+        <v>540</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>378</v>
+        <v>541</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>542</v>
+      </c>
+      <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>38</v>
       </c>
@@ -11748,13 +11681,13 @@
         <v>38</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>38</v>
+        <v>361</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>38</v>
+        <v>543</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>38</v>
+        <v>544</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>38</v>
@@ -11772,7 +11705,7 @@
         <v>38</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>232</v>
+        <v>539</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>36</v>
@@ -11790,27 +11723,27 @@
         <v>38</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>38</v>
+        <v>545</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>233</v>
+        <v>546</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>234</v>
+        <v>547</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AP77" t="s" s="2">
-        <v>38</v>
+        <v>548</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>413</v>
+        <v>549</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>413</v>
+        <v>549</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11830,22 +11763,22 @@
         <v>38</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>414</v>
+        <v>303</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>415</v>
+        <v>550</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>416</v>
+        <v>551</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>417</v>
+        <v>552</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>418</v>
+        <v>553</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>38</v>
@@ -11870,13 +11803,13 @@
         <v>38</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>38</v>
+        <v>361</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>38</v>
+        <v>554</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>38</v>
+        <v>555</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>38</v>
@@ -11894,7 +11827,7 @@
         <v>38</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>413</v>
+        <v>549</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>36</v>
@@ -11909,19 +11842,19 @@
         <v>61</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>419</v>
+        <v>38</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>420</v>
+        <v>556</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>421</v>
+        <v>557</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>422</v>
+        <v>38</v>
       </c>
       <c r="AP78" t="s" s="2">
         <v>38</v>
@@ -11929,10 +11862,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>423</v>
+        <v>558</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>423</v>
+        <v>558</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11943,7 +11876,7 @@
         <v>36</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>38</v>
@@ -11952,19 +11885,19 @@
         <v>38</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>424</v>
+        <v>559</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>425</v>
+        <v>560</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>426</v>
+        <v>561</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>427</v>
+        <v>562</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -12014,13 +11947,13 @@
         <v>38</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>423</v>
+        <v>558</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>38</v>
@@ -12032,31 +11965,31 @@
         <v>38</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>38</v>
+        <v>563</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>392</v>
+        <v>564</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>428</v>
+        <v>565</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>422</v>
+        <v>38</v>
       </c>
       <c r="AP79" t="s" s="2">
-        <v>38</v>
+        <v>566</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>429</v>
+        <v>567</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>429</v>
+        <v>567</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>430</v>
+        <v>38</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -12072,23 +12005,21 @@
         <v>38</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>431</v>
+        <v>568</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>432</v>
+        <v>569</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>433</v>
+        <v>570</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>435</v>
-      </c>
+        <v>571</v>
+      </c>
+      <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>38</v>
       </c>
@@ -12136,7 +12067,7 @@
         <v>38</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>429</v>
+        <v>567</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>36</v>
@@ -12151,41 +12082,41 @@
         <v>61</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>436</v>
+        <v>38</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>38</v>
+        <v>572</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>437</v>
+        <v>573</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>438</v>
+        <v>574</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>439</v>
+        <v>38</v>
       </c>
       <c r="AP80" t="s" s="2">
-        <v>38</v>
+        <v>575</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>440</v>
+        <v>576</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>440</v>
+        <v>576</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>441</v>
+        <v>38</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>38</v>
@@ -12194,22 +12125,22 @@
         <v>38</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>442</v>
+        <v>577</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>443</v>
+        <v>578</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>444</v>
+        <v>579</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>445</v>
+        <v>580</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>446</v>
+        <v>581</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>38</v>
@@ -12246,44 +12177,46 @@
         <v>38</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="AC81" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>38</v>
+      </c>
       <c r="AD81" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>440</v>
+        <v>576</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>61</v>
+        <v>582</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>448</v>
+        <v>38</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>449</v>
+        <v>583</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>450</v>
+        <v>584</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>451</v>
+        <v>38</v>
       </c>
       <c r="AP81" t="s" s="2">
         <v>38</v>
@@ -12291,16 +12224,14 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>452</v>
+        <v>585</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="C82" t="s" s="2">
-        <v>453</v>
-      </c>
+        <v>585</v>
+      </c>
+      <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>441</v>
+        <v>38</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -12310,29 +12241,25 @@
         <v>49</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>454</v>
+        <v>124</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>443</v>
+        <v>313</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>446</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>38</v>
       </c>
@@ -12380,7 +12307,7 @@
         <v>38</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>440</v>
+        <v>127</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>36</v>
@@ -12392,22 +12319,22 @@
         <v>38</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>448</v>
+        <v>38</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>449</v>
+        <v>38</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>450</v>
+        <v>128</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>451</v>
+        <v>38</v>
       </c>
       <c r="AP82" t="s" s="2">
         <v>38</v>
@@ -12415,21 +12342,21 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>455</v>
+        <v>586</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>455</v>
+        <v>586</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>38</v>
@@ -12438,19 +12365,19 @@
         <v>38</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>456</v>
+        <v>95</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>457</v>
+        <v>96</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>458</v>
+        <v>316</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>459</v>
+        <v>98</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12500,19 +12427,19 @@
         <v>38</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>455</v>
+        <v>134</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>38</v>
@@ -12521,13 +12448,13 @@
         <v>38</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>460</v>
+        <v>38</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>461</v>
+        <v>128</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>462</v>
+        <v>38</v>
       </c>
       <c r="AP83" t="s" s="2">
         <v>38</v>
@@ -12535,18 +12462,18 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>463</v>
+        <v>587</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>463</v>
+        <v>587</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>38</v>
+        <v>588</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>37</v>
@@ -12555,23 +12482,25 @@
         <v>38</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="J84" t="s" s="2">
         <v>50</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>265</v>
+        <v>95</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>464</v>
+        <v>589</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="N84" s="2"/>
+        <v>590</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O84" t="s" s="2">
-        <v>466</v>
+        <v>104</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>38</v>
@@ -12620,7 +12549,7 @@
         <v>38</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>463</v>
+        <v>591</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>36</v>
@@ -12632,22 +12561,22 @@
         <v>38</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>467</v>
+        <v>38</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>468</v>
+        <v>38</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>469</v>
+        <v>92</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>470</v>
+        <v>38</v>
       </c>
       <c r="AP84" t="s" s="2">
         <v>38</v>
@@ -12655,10 +12584,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>471</v>
+        <v>592</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>471</v>
+        <v>592</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12666,7 +12595,7 @@
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>49</v>
@@ -12678,23 +12607,19 @@
         <v>38</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>472</v>
+        <v>593</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>473</v>
+        <v>594</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>476</v>
-      </c>
+        <v>595</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>38</v>
       </c>
@@ -12730,17 +12655,19 @@
         <v>38</v>
       </c>
       <c r="AB85" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="AC85" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>38</v>
+      </c>
       <c r="AD85" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>477</v>
+        <v>38</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>471</v>
+        <v>592</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>36</v>
@@ -12749,7 +12676,7 @@
         <v>49</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>478</v>
+        <v>596</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>61</v>
@@ -12758,65 +12685,59 @@
         <v>38</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>479</v>
+        <v>38</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>480</v>
+        <v>597</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>481</v>
+        <v>598</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AP85" t="s" s="2">
-        <v>482</v>
+        <v>38</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>483</v>
+        <v>599</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="C86" t="s" s="2">
-        <v>484</v>
-      </c>
+        <v>599</v>
+      </c>
+      <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
         <v>38</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>49</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="I86" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>472</v>
+        <v>593</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>485</v>
+        <v>600</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>476</v>
-      </c>
+        <v>601</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>38</v>
       </c>
@@ -12864,7 +12785,7 @@
         <v>38</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>471</v>
+        <v>599</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>36</v>
@@ -12873,7 +12794,7 @@
         <v>49</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>478</v>
+        <v>596</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>61</v>
@@ -12882,27 +12803,27 @@
         <v>38</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>479</v>
+        <v>38</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>480</v>
+        <v>597</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>481</v>
+        <v>602</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AP86" t="s" s="2">
-        <v>482</v>
+        <v>38</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>486</v>
+        <v>603</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>487</v>
+        <v>603</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12925,16 +12846,20 @@
         <v>38</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>124</v>
+        <v>303</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>339</v>
+        <v>604</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N87" s="2"/>
-      <c r="O87" s="2"/>
+        <v>605</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>607</v>
+      </c>
       <c r="P87" t="s" s="2">
         <v>38</v>
       </c>
@@ -12958,13 +12883,13 @@
         <v>38</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>38</v>
+        <v>608</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>38</v>
+        <v>609</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>38</v>
@@ -12982,7 +12907,7 @@
         <v>38</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>127</v>
+        <v>603</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>36</v>
@@ -12994,19 +12919,19 @@
         <v>38</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>38</v>
+        <v>610</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>38</v>
+        <v>611</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>128</v>
+        <v>529</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>38</v>
@@ -13017,14 +12942,14 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>488</v>
+        <v>612</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>489</v>
+        <v>612</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -13043,18 +12968,20 @@
         <v>38</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>95</v>
+        <v>303</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>96</v>
+        <v>613</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>342</v>
+        <v>614</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O88" s="2"/>
+        <v>615</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>616</v>
+      </c>
       <c r="P88" t="s" s="2">
         <v>38</v>
       </c>
@@ -13078,31 +13005,31 @@
         <v>38</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>38</v>
+        <v>361</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>38</v>
+        <v>617</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>38</v>
+        <v>618</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AB88" t="s" s="2">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="AC88" t="s" s="2">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="AD88" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>134</v>
+        <v>612</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>36</v>
@@ -13114,19 +13041,19 @@
         <v>38</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>38</v>
+        <v>610</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>38</v>
+        <v>611</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>128</v>
+        <v>529</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>38</v>
@@ -13137,10 +13064,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>490</v>
+        <v>619</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>491</v>
+        <v>619</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13148,34 +13075,32 @@
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>49</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="I89" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>492</v>
+        <v>620</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>493</v>
+        <v>621</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>495</v>
-      </c>
+        <v>622</v>
+      </c>
+      <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
-        <v>496</v>
+        <v>623</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>38</v>
@@ -13224,7 +13149,7 @@
         <v>38</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>497</v>
+        <v>619</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>36</v>
@@ -13245,10 +13170,10 @@
         <v>38</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>498</v>
+        <v>38</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>499</v>
+        <v>624</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>38</v>
@@ -13259,10 +13184,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>501</v>
+        <v>625</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13279,30 +13204,26 @@
         <v>38</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>502</v>
+        <v>626</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>503</v>
+        <v>627</v>
       </c>
       <c r="N90" s="2"/>
-      <c r="O90" t="s" s="2">
-        <v>504</v>
-      </c>
+      <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="Q90" t="s" s="2">
-        <v>505</v>
-      </c>
+      <c r="Q90" s="2"/>
       <c r="R90" t="s" s="2">
         <v>38</v>
       </c>
@@ -13322,13 +13243,13 @@
         <v>38</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>142</v>
+        <v>38</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>506</v>
+        <v>38</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>507</v>
+        <v>38</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>38</v>
@@ -13346,7 +13267,7 @@
         <v>38</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>508</v>
+        <v>625</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>36</v>
@@ -13367,10 +13288,10 @@
         <v>38</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>509</v>
+        <v>597</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>510</v>
+        <v>628</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>38</v>
@@ -13381,10 +13302,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>511</v>
+        <v>629</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>512</v>
+        <v>629</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13392,13 +13313,13 @@
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="I91" t="s" s="2">
         <v>38</v>
@@ -13407,18 +13328,18 @@
         <v>50</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>124</v>
+        <v>630</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>513</v>
+        <v>631</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="N91" s="2"/>
-      <c r="O91" t="s" s="2">
-        <v>515</v>
-      </c>
+        <v>632</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>38</v>
       </c>
@@ -13466,13 +13387,13 @@
         <v>38</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>516</v>
+        <v>629</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>38</v>
@@ -13487,10 +13408,10 @@
         <v>38</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>517</v>
+        <v>634</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>518</v>
+        <v>635</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>38</v>
@@ -13501,10 +13422,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>519</v>
+        <v>636</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>520</v>
+        <v>636</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13515,10 +13436,10 @@
         <v>36</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="I92" t="s" s="2">
         <v>38</v>
@@ -13527,24 +13448,24 @@
         <v>50</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>63</v>
+        <v>637</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>521</v>
+        <v>638</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="N92" s="2"/>
-      <c r="O92" t="s" s="2">
-        <v>523</v>
-      </c>
+        <v>639</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q92" s="2"/>
       <c r="R92" t="s" s="2">
-        <v>524</v>
+        <v>38</v>
       </c>
       <c r="S92" t="s" s="2">
         <v>38</v>
@@ -13586,16 +13507,16 @@
         <v>38</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>525</v>
+        <v>636</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>526</v>
+        <v>38</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>61</v>
@@ -13607,10 +13528,10 @@
         <v>38</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>517</v>
+        <v>634</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>527</v>
+        <v>641</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>38</v>
@@ -13621,10 +13542,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>528</v>
+        <v>642</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>529</v>
+        <v>642</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13632,13 +13553,13 @@
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H93" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="I93" t="s" s="2">
         <v>38</v>
@@ -13647,26 +13568,26 @@
         <v>50</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>69</v>
+        <v>577</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>530</v>
+        <v>643</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>531</v>
+        <v>644</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>532</v>
+        <v>645</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>533</v>
+        <v>646</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q93" s="2"/>
       <c r="R93" t="s" s="2">
-        <v>534</v>
+        <v>38</v>
       </c>
       <c r="S93" t="s" s="2">
         <v>38</v>
@@ -13708,13 +13629,13 @@
         <v>38</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>535</v>
+        <v>642</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>38</v>
@@ -13729,10 +13650,10 @@
         <v>38</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>517</v>
+        <v>647</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>536</v>
+        <v>648</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>38</v>
@@ -13743,10 +13664,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>537</v>
+        <v>649</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>537</v>
+        <v>649</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13769,20 +13690,16 @@
         <v>38</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>329</v>
+        <v>124</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>538</v>
+        <v>313</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>541</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>38</v>
       </c>
@@ -13806,13 +13723,13 @@
         <v>38</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>542</v>
+        <v>38</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>543</v>
+        <v>38</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>544</v>
+        <v>38</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>38</v>
@@ -13830,7 +13747,7 @@
         <v>38</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>537</v>
+        <v>127</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>36</v>
@@ -13839,10 +13756,10 @@
         <v>49</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>545</v>
+        <v>38</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>38</v>
@@ -13851,10 +13768,10 @@
         <v>38</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>546</v>
+        <v>128</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>38</v>
@@ -13865,14 +13782,14 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>547</v>
+        <v>650</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>547</v>
+        <v>650</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>548</v>
+        <v>94</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
@@ -13891,20 +13808,18 @@
         <v>38</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>329</v>
+        <v>95</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>549</v>
+        <v>96</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>550</v>
+        <v>316</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>552</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>38</v>
       </c>
@@ -13928,13 +13843,13 @@
         <v>38</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>542</v>
+        <v>38</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>553</v>
+        <v>38</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>554</v>
+        <v>38</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>38</v>
@@ -13952,7 +13867,7 @@
         <v>38</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>547</v>
+        <v>134</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>36</v>
@@ -13964,37 +13879,37 @@
         <v>38</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>555</v>
+        <v>38</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>556</v>
+        <v>38</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>557</v>
+        <v>128</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AP95" t="s" s="2">
-        <v>558</v>
+        <v>38</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>559</v>
+        <v>651</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>559</v>
+        <v>651</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>38</v>
+        <v>588</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
@@ -14007,25 +13922,25 @@
         <v>38</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>560</v>
+        <v>95</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>561</v>
+        <v>589</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>562</v>
+        <v>590</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>563</v>
+        <v>98</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>564</v>
+        <v>104</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>38</v>
@@ -14074,7 +13989,7 @@
         <v>38</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>559</v>
+        <v>591</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>36</v>
@@ -14086,7 +14001,7 @@
         <v>38</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>38</v>
@@ -14095,10 +14010,10 @@
         <v>38</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>565</v>
+        <v>38</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>566</v>
+        <v>92</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>38</v>
@@ -14109,10 +14024,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>567</v>
+        <v>652</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>567</v>
+        <v>652</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14120,7 +14035,7 @@
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>49</v>
@@ -14132,21 +14047,23 @@
         <v>38</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>329</v>
+        <v>303</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>568</v>
+        <v>653</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>569</v>
+        <v>654</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="O97" s="2"/>
+        <v>655</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="P97" t="s" s="2">
         <v>38</v>
       </c>
@@ -14170,13 +14087,13 @@
         <v>38</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>387</v>
+        <v>361</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>571</v>
+        <v>362</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>572</v>
+        <v>363</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>38</v>
@@ -14194,10 +14111,10 @@
         <v>38</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>567</v>
+        <v>652</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>49</v>
@@ -14212,27 +14129,27 @@
         <v>38</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>573</v>
+        <v>656</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>574</v>
+        <v>366</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>575</v>
+        <v>367</v>
       </c>
       <c r="AO97" t="s" s="2">
-        <v>38</v>
+        <v>368</v>
       </c>
       <c r="AP97" t="s" s="2">
-        <v>576</v>
+        <v>38</v>
       </c>
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>577</v>
+        <v>657</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>577</v>
+        <v>657</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14252,22 +14169,22 @@
         <v>38</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>329</v>
+        <v>658</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>578</v>
+        <v>659</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>579</v>
+        <v>448</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>580</v>
+        <v>660</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>581</v>
+        <v>450</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>38</v>
@@ -14292,13 +14209,13 @@
         <v>38</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>387</v>
+        <v>38</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>582</v>
+        <v>38</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>583</v>
+        <v>38</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>38</v>
@@ -14316,7 +14233,7 @@
         <v>38</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>577</v>
+        <v>657</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>36</v>
@@ -14334,27 +14251,27 @@
         <v>38</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>38</v>
+        <v>661</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>584</v>
+        <v>454</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>585</v>
+        <v>455</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AP98" t="s" s="2">
-        <v>38</v>
+        <v>456</v>
       </c>
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>586</v>
+        <v>662</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>586</v>
+        <v>662</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14377,18 +14294,20 @@
         <v>38</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>587</v>
+        <v>303</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>588</v>
+        <v>663</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>589</v>
+        <v>664</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="O99" s="2"/>
+        <v>665</v>
+      </c>
+      <c r="O99" t="s" s="2">
+        <v>513</v>
+      </c>
       <c r="P99" t="s" s="2">
         <v>38</v>
       </c>
@@ -14412,13 +14331,13 @@
         <v>38</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>38</v>
+        <v>514</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>38</v>
+        <v>515</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>38</v>
+        <v>516</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>38</v>
@@ -14436,7 +14355,7 @@
         <v>38</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>586</v>
+        <v>662</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>36</v>
@@ -14445,7 +14364,7 @@
         <v>49</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>38</v>
+        <v>517</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>61</v>
@@ -14454,38 +14373,38 @@
         <v>38</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>591</v>
+        <v>38</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>592</v>
+        <v>92</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>593</v>
+        <v>518</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AP99" t="s" s="2">
-        <v>594</v>
+        <v>38</v>
       </c>
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>595</v>
+        <v>666</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>595</v>
+        <v>666</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>38</v>
+        <v>520</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>38</v>
@@ -14497,18 +14416,20 @@
         <v>38</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>596</v>
+        <v>303</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>597</v>
+        <v>521</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>598</v>
+        <v>522</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="O100" s="2"/>
+        <v>523</v>
+      </c>
+      <c r="O100" t="s" s="2">
+        <v>524</v>
+      </c>
       <c r="P100" t="s" s="2">
         <v>38</v>
       </c>
@@ -14532,13 +14453,13 @@
         <v>38</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>38</v>
+        <v>514</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>38</v>
+        <v>525</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>38</v>
+        <v>526</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>38</v>
@@ -14556,13 +14477,13 @@
         <v>38</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>595</v>
+        <v>666</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>38</v>
@@ -14574,27 +14495,27 @@
         <v>38</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>600</v>
+        <v>527</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>601</v>
+        <v>528</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>602</v>
+        <v>529</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AP100" t="s" s="2">
-        <v>603</v>
+        <v>530</v>
       </c>
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>604</v>
+        <v>667</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>604</v>
+        <v>667</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14617,19 +14538,19 @@
         <v>38</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>605</v>
+        <v>39</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>606</v>
+        <v>668</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>607</v>
+        <v>669</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>608</v>
+        <v>580</v>
       </c>
       <c r="O101" t="s" s="2">
-        <v>609</v>
+        <v>581</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>38</v>
@@ -14678,7 +14599,7 @@
         <v>38</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>604</v>
+        <v>667</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>36</v>
@@ -14690,7 +14611,7 @@
         <v>38</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>610</v>
+        <v>61</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>38</v>
@@ -14699,2430 +14620,20 @@
         <v>38</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>611</v>
+        <v>583</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>612</v>
+        <v>584</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AP101" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="102" hidden="true">
-      <c r="A102" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="B102" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="C102" s="2"/>
-      <c r="D102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E102" s="2"/>
-      <c r="F102" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G102" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="H102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K102" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N102" s="2"/>
-      <c r="O102" s="2"/>
-      <c r="P102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q102" s="2"/>
-      <c r="R102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF102" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AG102" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH102" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN102" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AO102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AP102" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="103" hidden="true">
-      <c r="A103" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="B103" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="C103" s="2"/>
-      <c r="D103" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="E103" s="2"/>
-      <c r="F103" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G103" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K103" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O103" s="2"/>
-      <c r="P103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q103" s="2"/>
-      <c r="R103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF103" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AG103" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH103" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ103" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN103" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AO103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AP103" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="104" hidden="true">
-      <c r="A104" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="B104" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="C104" s="2"/>
-      <c r="D104" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="E104" s="2"/>
-      <c r="F104" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G104" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I104" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J104" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="K104" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O104" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="P104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q104" s="2"/>
-      <c r="R104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF104" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="AG104" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH104" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ104" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN104" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AO104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AP104" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="105" hidden="true">
-      <c r="A105" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="B105" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="C105" s="2"/>
-      <c r="D105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E105" s="2"/>
-      <c r="F105" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G105" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="H105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K105" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="N105" s="2"/>
-      <c r="O105" s="2"/>
-      <c r="P105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q105" s="2"/>
-      <c r="R105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF105" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="AG105" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH105" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI105" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="AJ105" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM105" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="AN105" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="AO105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AP105" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="106" hidden="true">
-      <c r="A106" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="B106" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="C106" s="2"/>
-      <c r="D106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E106" s="2"/>
-      <c r="F106" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G106" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="H106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K106" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="N106" s="2"/>
-      <c r="O106" s="2"/>
-      <c r="P106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q106" s="2"/>
-      <c r="R106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF106" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="AG106" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH106" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI106" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="AJ106" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM106" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="AN106" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="AO106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AP106" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="107" hidden="true">
-      <c r="A107" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="B107" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="C107" s="2"/>
-      <c r="D107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E107" s="2"/>
-      <c r="F107" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G107" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="H107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K107" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="O107" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="P107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q107" s="2"/>
-      <c r="R107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X107" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y107" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="Z107" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="AA107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF107" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="AG107" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH107" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ107" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL107" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="AM107" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="AN107" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="AO107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AP107" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="108" hidden="true">
-      <c r="A108" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="B108" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="C108" s="2"/>
-      <c r="D108" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E108" s="2"/>
-      <c r="F108" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G108" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H108" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I108" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J108" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K108" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="L108" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>643</v>
-      </c>
-      <c r="O108" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="P108" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q108" s="2"/>
-      <c r="R108" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S108" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T108" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U108" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V108" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W108" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X108" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="Y108" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="Z108" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="AA108" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB108" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC108" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD108" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE108" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF108" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="AG108" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH108" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI108" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ108" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK108" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL108" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="AM108" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="AN108" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="AO108" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AP108" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="109" hidden="true">
-      <c r="A109" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="B109" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="C109" s="2"/>
-      <c r="D109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E109" s="2"/>
-      <c r="F109" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G109" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="H109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K109" t="s" s="2">
-        <v>648</v>
-      </c>
-      <c r="L109" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="N109" s="2"/>
-      <c r="O109" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="P109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q109" s="2"/>
-      <c r="R109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF109" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="AG109" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH109" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ109" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN109" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="AO109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AP109" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="110" hidden="true">
-      <c r="A110" t="s" s="2">
-        <v>653</v>
-      </c>
-      <c r="B110" t="s" s="2">
-        <v>653</v>
-      </c>
-      <c r="C110" s="2"/>
-      <c r="D110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E110" s="2"/>
-      <c r="F110" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G110" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="H110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K110" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="L110" t="s" s="2">
-        <v>654</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>655</v>
-      </c>
-      <c r="N110" s="2"/>
-      <c r="O110" s="2"/>
-      <c r="P110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q110" s="2"/>
-      <c r="R110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF110" t="s" s="2">
-        <v>653</v>
-      </c>
-      <c r="AG110" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH110" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ110" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM110" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="AN110" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="AO110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AP110" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="111" hidden="true">
-      <c r="A111" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="B111" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="C111" s="2"/>
-      <c r="D111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E111" s="2"/>
-      <c r="F111" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G111" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J111" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="K111" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="L111" t="s" s="2">
-        <v>659</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>660</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>661</v>
-      </c>
-      <c r="O111" s="2"/>
-      <c r="P111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q111" s="2"/>
-      <c r="R111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF111" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="AG111" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH111" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ111" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM111" t="s" s="2">
-        <v>662</v>
-      </c>
-      <c r="AN111" t="s" s="2">
-        <v>663</v>
-      </c>
-      <c r="AO111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AP111" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="112" hidden="true">
-      <c r="A112" t="s" s="2">
-        <v>664</v>
-      </c>
-      <c r="B112" t="s" s="2">
-        <v>664</v>
-      </c>
-      <c r="C112" s="2"/>
-      <c r="D112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E112" s="2"/>
-      <c r="F112" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G112" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J112" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="K112" t="s" s="2">
-        <v>665</v>
-      </c>
-      <c r="L112" t="s" s="2">
-        <v>666</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>667</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>668</v>
-      </c>
-      <c r="O112" s="2"/>
-      <c r="P112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q112" s="2"/>
-      <c r="R112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF112" t="s" s="2">
-        <v>664</v>
-      </c>
-      <c r="AG112" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH112" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ112" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM112" t="s" s="2">
-        <v>662</v>
-      </c>
-      <c r="AN112" t="s" s="2">
-        <v>669</v>
-      </c>
-      <c r="AO112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AP112" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="113" hidden="true">
-      <c r="A113" t="s" s="2">
-        <v>670</v>
-      </c>
-      <c r="B113" t="s" s="2">
-        <v>670</v>
-      </c>
-      <c r="C113" s="2"/>
-      <c r="D113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E113" s="2"/>
-      <c r="F113" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G113" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J113" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="K113" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="L113" t="s" s="2">
-        <v>671</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>673</v>
-      </c>
-      <c r="O113" t="s" s="2">
-        <v>674</v>
-      </c>
-      <c r="P113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q113" s="2"/>
-      <c r="R113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF113" t="s" s="2">
-        <v>670</v>
-      </c>
-      <c r="AG113" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH113" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ113" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM113" t="s" s="2">
-        <v>675</v>
-      </c>
-      <c r="AN113" t="s" s="2">
-        <v>676</v>
-      </c>
-      <c r="AO113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AP113" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="114" hidden="true">
-      <c r="A114" t="s" s="2">
-        <v>677</v>
-      </c>
-      <c r="B114" t="s" s="2">
-        <v>677</v>
-      </c>
-      <c r="C114" s="2"/>
-      <c r="D114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E114" s="2"/>
-      <c r="F114" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G114" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="H114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K114" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="L114" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N114" s="2"/>
-      <c r="O114" s="2"/>
-      <c r="P114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q114" s="2"/>
-      <c r="R114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF114" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AG114" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH114" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN114" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AO114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AP114" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="115" hidden="true">
-      <c r="A115" t="s" s="2">
-        <v>678</v>
-      </c>
-      <c r="B115" t="s" s="2">
-        <v>678</v>
-      </c>
-      <c r="C115" s="2"/>
-      <c r="D115" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="E115" s="2"/>
-      <c r="F115" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G115" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K115" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="L115" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="M115" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N115" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O115" s="2"/>
-      <c r="P115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q115" s="2"/>
-      <c r="R115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF115" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AG115" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH115" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ115" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN115" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AO115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AP115" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="116" hidden="true">
-      <c r="A116" t="s" s="2">
-        <v>679</v>
-      </c>
-      <c r="B116" t="s" s="2">
-        <v>679</v>
-      </c>
-      <c r="C116" s="2"/>
-      <c r="D116" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="E116" s="2"/>
-      <c r="F116" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G116" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I116" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J116" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="K116" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="L116" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="N116" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O116" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="P116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q116" s="2"/>
-      <c r="R116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF116" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="AG116" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH116" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ116" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN116" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AO116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AP116" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="117" hidden="true">
-      <c r="A117" t="s" s="2">
-        <v>680</v>
-      </c>
-      <c r="B117" t="s" s="2">
-        <v>680</v>
-      </c>
-      <c r="C117" s="2"/>
-      <c r="D117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E117" s="2"/>
-      <c r="F117" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G117" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="H117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J117" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="K117" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="L117" t="s" s="2">
-        <v>681</v>
-      </c>
-      <c r="M117" t="s" s="2">
-        <v>682</v>
-      </c>
-      <c r="N117" t="s" s="2">
-        <v>683</v>
-      </c>
-      <c r="O117" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="P117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q117" s="2"/>
-      <c r="R117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X117" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="Y117" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="Z117" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="AA117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF117" t="s" s="2">
-        <v>680</v>
-      </c>
-      <c r="AG117" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH117" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ117" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL117" t="s" s="2">
-        <v>684</v>
-      </c>
-      <c r="AM117" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="AN117" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AO117" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AP117" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="118" hidden="true">
-      <c r="A118" t="s" s="2">
-        <v>685</v>
-      </c>
-      <c r="B118" t="s" s="2">
-        <v>685</v>
-      </c>
-      <c r="C118" s="2"/>
-      <c r="D118" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E118" s="2"/>
-      <c r="F118" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G118" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="H118" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I118" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J118" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="K118" t="s" s="2">
-        <v>686</v>
-      </c>
-      <c r="L118" t="s" s="2">
-        <v>687</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="N118" t="s" s="2">
-        <v>688</v>
-      </c>
-      <c r="O118" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="P118" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q118" s="2"/>
-      <c r="R118" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S118" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T118" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U118" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V118" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W118" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X118" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y118" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z118" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA118" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB118" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC118" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD118" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE118" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF118" t="s" s="2">
-        <v>685</v>
-      </c>
-      <c r="AG118" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH118" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI118" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ118" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK118" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL118" t="s" s="2">
-        <v>689</v>
-      </c>
-      <c r="AM118" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="AN118" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="AO118" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AP118" t="s" s="2">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="119" hidden="true">
-      <c r="A119" t="s" s="2">
-        <v>690</v>
-      </c>
-      <c r="B119" t="s" s="2">
-        <v>690</v>
-      </c>
-      <c r="C119" s="2"/>
-      <c r="D119" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E119" s="2"/>
-      <c r="F119" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G119" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="H119" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I119" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J119" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K119" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="L119" t="s" s="2">
-        <v>691</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>692</v>
-      </c>
-      <c r="N119" t="s" s="2">
-        <v>693</v>
-      </c>
-      <c r="O119" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="P119" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q119" s="2"/>
-      <c r="R119" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S119" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T119" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U119" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V119" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W119" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X119" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="Y119" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="Z119" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="AA119" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB119" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC119" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD119" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE119" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF119" t="s" s="2">
-        <v>690</v>
-      </c>
-      <c r="AG119" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH119" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI119" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="AJ119" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK119" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL119" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM119" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AN119" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="AO119" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AP119" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="120" hidden="true">
-      <c r="A120" t="s" s="2">
-        <v>694</v>
-      </c>
-      <c r="B120" t="s" s="2">
-        <v>694</v>
-      </c>
-      <c r="C120" s="2"/>
-      <c r="D120" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="E120" s="2"/>
-      <c r="F120" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G120" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H120" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I120" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J120" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K120" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="L120" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="O120" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="P120" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q120" s="2"/>
-      <c r="R120" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S120" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T120" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U120" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V120" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W120" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X120" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="Y120" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="Z120" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="AA120" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB120" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC120" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD120" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE120" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF120" t="s" s="2">
-        <v>694</v>
-      </c>
-      <c r="AG120" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH120" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI120" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ120" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK120" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL120" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="AM120" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="AN120" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="AO120" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AP120" t="s" s="2">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="121" hidden="true">
-      <c r="A121" t="s" s="2">
-        <v>695</v>
-      </c>
-      <c r="B121" t="s" s="2">
-        <v>695</v>
-      </c>
-      <c r="C121" s="2"/>
-      <c r="D121" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E121" s="2"/>
-      <c r="F121" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G121" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H121" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I121" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J121" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K121" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="L121" t="s" s="2">
-        <v>696</v>
-      </c>
-      <c r="M121" t="s" s="2">
-        <v>697</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="O121" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="P121" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q121" s="2"/>
-      <c r="R121" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S121" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T121" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U121" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V121" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W121" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X121" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y121" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z121" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA121" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB121" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC121" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD121" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE121" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF121" t="s" s="2">
-        <v>695</v>
-      </c>
-      <c r="AG121" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH121" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI121" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ121" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK121" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL121" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM121" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="AN121" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="AO121" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AP121" t="s" s="2">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP121">
+  <autoFilter ref="A1:AP101">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -17132,7 +14643,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI120">
+  <conditionalFormatting sqref="A2:AI100">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
